--- a/LiteratureAnalysis/data/Data_flow/dataset_others -backup.xlsx
+++ b/LiteratureAnalysis/data/Data_flow/dataset_others -backup.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="19416" windowHeight="10416"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="10260"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -2689,7 +2689,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -2803,7 +2803,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题​​">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -3089,19 +3089,18 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr filterMode="1"/>
   <dimension ref="A1:O201"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="Q58" sqref="Q58"/>
+    <sheetView tabSelected="1" topLeftCell="A133" workbookViewId="0">
+      <selection activeCell="R8" sqref="R8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.1" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="13" max="13" width="14.109375" customWidth="1"/>
+    <col min="13" max="13" width="14.1015625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -3145,7 +3144,7 @@
         <v>861</v>
       </c>
     </row>
-    <row r="2" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A2" t="s">
         <v>13</v>
       </c>
@@ -3189,7 +3188,7 @@
         <v>836</v>
       </c>
     </row>
-    <row r="3" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A3" t="s">
         <v>14</v>
       </c>
@@ -3233,7 +3232,7 @@
         <v>837</v>
       </c>
     </row>
-    <row r="4" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A4" t="s">
         <v>15</v>
       </c>
@@ -3280,7 +3279,7 @@
         <v>839</v>
       </c>
     </row>
-    <row r="5" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A5" t="s">
         <v>16</v>
       </c>
@@ -3324,7 +3323,7 @@
         <v>836</v>
       </c>
     </row>
-    <row r="6" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A6" t="s">
         <v>17</v>
       </c>
@@ -3368,7 +3367,7 @@
         <v>840</v>
       </c>
     </row>
-    <row r="7" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A7" t="s">
         <v>18</v>
       </c>
@@ -3412,7 +3411,7 @@
         <v>836</v>
       </c>
     </row>
-    <row r="8" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A8" t="s">
         <v>19</v>
       </c>
@@ -3456,7 +3455,7 @@
         <v>844</v>
       </c>
     </row>
-    <row r="9" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A9" t="s">
         <v>20</v>
       </c>
@@ -3500,7 +3499,7 @@
         <v>836</v>
       </c>
     </row>
-    <row r="10" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A10" t="s">
         <v>21</v>
       </c>
@@ -3544,7 +3543,7 @@
         <v>836</v>
       </c>
     </row>
-    <row r="11" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A11" t="s">
         <v>22</v>
       </c>
@@ -3585,7 +3584,7 @@
         <v>862</v>
       </c>
     </row>
-    <row r="12" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A12" t="s">
         <v>23</v>
       </c>
@@ -3629,7 +3628,7 @@
         <v>862</v>
       </c>
     </row>
-    <row r="13" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A13" t="s">
         <v>24</v>
       </c>
@@ -3673,7 +3672,7 @@
         <v>862</v>
       </c>
     </row>
-    <row r="14" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A14" t="s">
         <v>25</v>
       </c>
@@ -3717,7 +3716,7 @@
         <v>836</v>
       </c>
     </row>
-    <row r="15" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A15" t="s">
         <v>26</v>
       </c>
@@ -3761,7 +3760,7 @@
         <v>842</v>
       </c>
     </row>
-    <row r="16" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A16" t="s">
         <v>27</v>
       </c>
@@ -3808,7 +3807,7 @@
         <v>843</v>
       </c>
     </row>
-    <row r="17" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A17" t="s">
         <v>28</v>
       </c>
@@ -3852,7 +3851,7 @@
         <v>836</v>
       </c>
     </row>
-    <row r="18" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A18" t="s">
         <v>29</v>
       </c>
@@ -3896,7 +3895,7 @@
         <v>836</v>
       </c>
     </row>
-    <row r="19" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A19" t="s">
         <v>30</v>
       </c>
@@ -3940,7 +3939,7 @@
         <v>836</v>
       </c>
     </row>
-    <row r="20" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A20" t="s">
         <v>31</v>
       </c>
@@ -3984,7 +3983,7 @@
         <v>840</v>
       </c>
     </row>
-    <row r="21" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A21" t="s">
         <v>32</v>
       </c>
@@ -4028,7 +4027,7 @@
         <v>836</v>
       </c>
     </row>
-    <row r="22" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A22" t="s">
         <v>33</v>
       </c>
@@ -4072,7 +4071,7 @@
         <v>836</v>
       </c>
     </row>
-    <row r="23" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A23" t="s">
         <v>34</v>
       </c>
@@ -4116,7 +4115,7 @@
         <v>836</v>
       </c>
     </row>
-    <row r="24" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A24" t="s">
         <v>35</v>
       </c>
@@ -4161,7 +4160,7 @@
         <v>845</v>
       </c>
     </row>
-    <row r="25" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A25" t="s">
         <v>36</v>
       </c>
@@ -4205,7 +4204,7 @@
         <v>836</v>
       </c>
     </row>
-    <row r="26" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A26" t="s">
         <v>37</v>
       </c>
@@ -4249,7 +4248,7 @@
         <v>862</v>
       </c>
     </row>
-    <row r="27" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A27" t="s">
         <v>38</v>
       </c>
@@ -4293,7 +4292,7 @@
         <v>844</v>
       </c>
     </row>
-    <row r="28" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A28" t="s">
         <v>39</v>
       </c>
@@ -4337,7 +4336,7 @@
         <v>862</v>
       </c>
     </row>
-    <row r="29" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A29" t="s">
         <v>40</v>
       </c>
@@ -4381,7 +4380,7 @@
         <v>862</v>
       </c>
     </row>
-    <row r="30" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A30" t="s">
         <v>41</v>
       </c>
@@ -4425,7 +4424,7 @@
         <v>844</v>
       </c>
     </row>
-    <row r="31" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A31" t="s">
         <v>42</v>
       </c>
@@ -4469,7 +4468,7 @@
         <v>840</v>
       </c>
     </row>
-    <row r="32" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A32" t="s">
         <v>43</v>
       </c>
@@ -4513,7 +4512,7 @@
         <v>836</v>
       </c>
     </row>
-    <row r="33" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A33" t="s">
         <v>44</v>
       </c>
@@ -4557,7 +4556,7 @@
         <v>836</v>
       </c>
     </row>
-    <row r="34" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A34" t="s">
         <v>45</v>
       </c>
@@ -4601,7 +4600,7 @@
         <v>836</v>
       </c>
     </row>
-    <row r="35" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A35" t="s">
         <v>46</v>
       </c>
@@ -4645,7 +4644,7 @@
         <v>836</v>
       </c>
     </row>
-    <row r="36" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A36" t="s">
         <v>47</v>
       </c>
@@ -4689,7 +4688,7 @@
         <v>862</v>
       </c>
     </row>
-    <row r="37" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A37" t="s">
         <v>48</v>
       </c>
@@ -4733,7 +4732,7 @@
         <v>847</v>
       </c>
     </row>
-    <row r="38" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A38" t="s">
         <v>49</v>
       </c>
@@ -4777,7 +4776,7 @@
         <v>847</v>
       </c>
     </row>
-    <row r="39" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A39" t="s">
         <v>50</v>
       </c>
@@ -4821,7 +4820,7 @@
         <v>847</v>
       </c>
     </row>
-    <row r="40" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A40" t="s">
         <v>51</v>
       </c>
@@ -4865,7 +4864,7 @@
         <v>847</v>
       </c>
     </row>
-    <row r="41" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A41" t="s">
         <v>52</v>
       </c>
@@ -4912,7 +4911,7 @@
         <v>848</v>
       </c>
     </row>
-    <row r="42" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A42" t="s">
         <v>53</v>
       </c>
@@ -4956,7 +4955,7 @@
         <v>862</v>
       </c>
     </row>
-    <row r="43" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A43" t="s">
         <v>54</v>
       </c>
@@ -5000,7 +4999,7 @@
         <v>847</v>
       </c>
     </row>
-    <row r="44" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A44" t="s">
         <v>55</v>
       </c>
@@ -5044,7 +5043,7 @@
         <v>847</v>
       </c>
     </row>
-    <row r="45" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A45" t="s">
         <v>56</v>
       </c>
@@ -5088,7 +5087,7 @@
         <v>847</v>
       </c>
     </row>
-    <row r="46" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A46" t="s">
         <v>57</v>
       </c>
@@ -5132,7 +5131,7 @@
         <v>862</v>
       </c>
     </row>
-    <row r="47" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A47" t="s">
         <v>58</v>
       </c>
@@ -5179,7 +5178,7 @@
         <v>850</v>
       </c>
     </row>
-    <row r="48" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A48" t="s">
         <v>59</v>
       </c>
@@ -5226,7 +5225,7 @@
         <v>851</v>
       </c>
     </row>
-    <row r="49" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A49" t="s">
         <v>60</v>
       </c>
@@ -5273,7 +5272,7 @@
         <v>852</v>
       </c>
     </row>
-    <row r="50" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A50" t="s">
         <v>61</v>
       </c>
@@ -5320,7 +5319,7 @@
         <v>853</v>
       </c>
     </row>
-    <row r="51" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A51" t="s">
         <v>62</v>
       </c>
@@ -5364,7 +5363,7 @@
         <v>847</v>
       </c>
     </row>
-    <row r="52" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A52" t="s">
         <v>63</v>
       </c>
@@ -5408,7 +5407,7 @@
         <v>862</v>
       </c>
     </row>
-    <row r="53" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A53" t="s">
         <v>64</v>
       </c>
@@ -5452,7 +5451,7 @@
         <v>847</v>
       </c>
     </row>
-    <row r="54" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A54" t="s">
         <v>65</v>
       </c>
@@ -5496,7 +5495,7 @@
         <v>854</v>
       </c>
     </row>
-    <row r="55" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A55" t="s">
         <v>66</v>
       </c>
@@ -5543,7 +5542,7 @@
         <v>855</v>
       </c>
     </row>
-    <row r="56" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A56" t="s">
         <v>67</v>
       </c>
@@ -5590,7 +5589,7 @@
         <v>856</v>
       </c>
     </row>
-    <row r="57" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A57" t="s">
         <v>68</v>
       </c>
@@ -5634,7 +5633,7 @@
         <v>857</v>
       </c>
     </row>
-    <row r="58" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A58" t="s">
         <v>69</v>
       </c>
@@ -5681,7 +5680,7 @@
         <v>858</v>
       </c>
     </row>
-    <row r="59" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A59" t="s">
         <v>70</v>
       </c>
@@ -5722,7 +5721,7 @@
         <v>847</v>
       </c>
     </row>
-    <row r="60" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A60" t="s">
         <v>71</v>
       </c>
@@ -5766,7 +5765,7 @@
         <v>847</v>
       </c>
     </row>
-    <row r="61" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A61" t="s">
         <v>72</v>
       </c>
@@ -5810,7 +5809,7 @@
         <v>847</v>
       </c>
     </row>
-    <row r="62" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A62" t="s">
         <v>73</v>
       </c>
@@ -5854,7 +5853,7 @@
         <v>847</v>
       </c>
     </row>
-    <row r="63" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A63" t="s">
         <v>74</v>
       </c>
@@ -5898,7 +5897,7 @@
         <v>847</v>
       </c>
     </row>
-    <row r="64" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A64" t="s">
         <v>75</v>
       </c>
@@ -5942,7 +5941,7 @@
         <v>854</v>
       </c>
     </row>
-    <row r="65" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A65" t="s">
         <v>76</v>
       </c>
@@ -5986,7 +5985,7 @@
         <v>857</v>
       </c>
     </row>
-    <row r="66" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A66" t="s">
         <v>77</v>
       </c>
@@ -6030,7 +6029,7 @@
         <v>847</v>
       </c>
     </row>
-    <row r="67" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A67" t="s">
         <v>78</v>
       </c>
@@ -6077,7 +6076,7 @@
         <v>820</v>
       </c>
     </row>
-    <row r="68" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A68" t="s">
         <v>79</v>
       </c>
@@ -6121,7 +6120,7 @@
         <v>821</v>
       </c>
     </row>
-    <row r="69" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A69" t="s">
         <v>80</v>
       </c>
@@ -6165,7 +6164,7 @@
         <v>822</v>
       </c>
     </row>
-    <row r="70" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A70" t="s">
         <v>81</v>
       </c>
@@ -6209,7 +6208,7 @@
         <v>821</v>
       </c>
     </row>
-    <row r="71" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A71" t="s">
         <v>82</v>
       </c>
@@ -6253,7 +6252,7 @@
         <v>823</v>
       </c>
     </row>
-    <row r="72" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A72" t="s">
         <v>83</v>
       </c>
@@ -6297,7 +6296,7 @@
         <v>821</v>
       </c>
     </row>
-    <row r="73" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A73" t="s">
         <v>84</v>
       </c>
@@ -6341,7 +6340,7 @@
         <v>819</v>
       </c>
     </row>
-    <row r="74" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A74" t="s">
         <v>85</v>
       </c>
@@ -6385,7 +6384,7 @@
         <v>824</v>
       </c>
     </row>
-    <row r="75" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A75" t="s">
         <v>86</v>
       </c>
@@ -6429,7 +6428,7 @@
         <v>821</v>
       </c>
     </row>
-    <row r="76" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A76" t="s">
         <v>87</v>
       </c>
@@ -6473,7 +6472,7 @@
         <v>825</v>
       </c>
     </row>
-    <row r="77" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A77" t="s">
         <v>88</v>
       </c>
@@ -6517,7 +6516,7 @@
         <v>819</v>
       </c>
     </row>
-    <row r="78" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A78" t="s">
         <v>89</v>
       </c>
@@ -6561,7 +6560,7 @@
         <v>821</v>
       </c>
     </row>
-    <row r="79" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A79" t="s">
         <v>90</v>
       </c>
@@ -6605,7 +6604,7 @@
         <v>821</v>
       </c>
     </row>
-    <row r="80" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A80" t="s">
         <v>91</v>
       </c>
@@ -6649,7 +6648,7 @@
         <v>862</v>
       </c>
     </row>
-    <row r="81" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A81" t="s">
         <v>92</v>
       </c>
@@ -6693,7 +6692,7 @@
         <v>821</v>
       </c>
     </row>
-    <row r="82" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A82" t="s">
         <v>93</v>
       </c>
@@ -6740,7 +6739,7 @@
         <v>826</v>
       </c>
     </row>
-    <row r="83" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A83" t="s">
         <v>94</v>
       </c>
@@ -6781,7 +6780,7 @@
         <v>821</v>
       </c>
     </row>
-    <row r="84" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A84" t="s">
         <v>95</v>
       </c>
@@ -6828,7 +6827,7 @@
         <v>827</v>
       </c>
     </row>
-    <row r="85" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A85" t="s">
         <v>96</v>
       </c>
@@ -6872,7 +6871,7 @@
         <v>821</v>
       </c>
     </row>
-    <row r="86" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A86" t="s">
         <v>97</v>
       </c>
@@ -6919,7 +6918,7 @@
         <v>828</v>
       </c>
     </row>
-    <row r="87" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A87" t="s">
         <v>98</v>
       </c>
@@ -6963,7 +6962,7 @@
         <v>824</v>
       </c>
     </row>
-    <row r="88" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A88" t="s">
         <v>99</v>
       </c>
@@ -7007,7 +7006,7 @@
         <v>829</v>
       </c>
     </row>
-    <row r="89" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A89" t="s">
         <v>100</v>
       </c>
@@ -7051,7 +7050,7 @@
         <v>862</v>
       </c>
     </row>
-    <row r="90" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A90" t="s">
         <v>101</v>
       </c>
@@ -7095,7 +7094,7 @@
         <v>862</v>
       </c>
     </row>
-    <row r="91" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A91" t="s">
         <v>102</v>
       </c>
@@ -7139,7 +7138,7 @@
         <v>819</v>
       </c>
     </row>
-    <row r="92" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A92" t="s">
         <v>103</v>
       </c>
@@ -7183,7 +7182,7 @@
         <v>821</v>
       </c>
     </row>
-    <row r="93" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A93" t="s">
         <v>104</v>
       </c>
@@ -7227,7 +7226,7 @@
         <v>862</v>
       </c>
     </row>
-    <row r="94" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A94" t="s">
         <v>105</v>
       </c>
@@ -7271,7 +7270,7 @@
         <v>862</v>
       </c>
     </row>
-    <row r="95" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A95" t="s">
         <v>106</v>
       </c>
@@ -7318,7 +7317,7 @@
         <v>830</v>
       </c>
     </row>
-    <row r="96" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A96" t="s">
         <v>107</v>
       </c>
@@ -7362,7 +7361,7 @@
         <v>862</v>
       </c>
     </row>
-    <row r="97" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A97" t="s">
         <v>108</v>
       </c>
@@ -7409,7 +7408,7 @@
         <v>831</v>
       </c>
     </row>
-    <row r="98" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A98" t="s">
         <v>109</v>
       </c>
@@ -7453,7 +7452,7 @@
         <v>862</v>
       </c>
     </row>
-    <row r="99" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A99" t="s">
         <v>110</v>
       </c>
@@ -7497,7 +7496,7 @@
         <v>862</v>
       </c>
     </row>
-    <row r="100" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A100" t="s">
         <v>111</v>
       </c>
@@ -7541,7 +7540,7 @@
         <v>819</v>
       </c>
     </row>
-    <row r="101" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A101" t="s">
         <v>112</v>
       </c>
@@ -7588,7 +7587,7 @@
         <v>832</v>
       </c>
     </row>
-    <row r="102" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A102" t="s">
         <v>113</v>
       </c>
@@ -7632,7 +7631,7 @@
         <v>819</v>
       </c>
     </row>
-    <row r="103" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A103" t="s">
         <v>114</v>
       </c>
@@ -7676,7 +7675,7 @@
         <v>862</v>
       </c>
     </row>
-    <row r="104" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A104" t="s">
         <v>115</v>
       </c>
@@ -7720,7 +7719,7 @@
         <v>819</v>
       </c>
     </row>
-    <row r="105" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A105" t="s">
         <v>116</v>
       </c>
@@ -7764,7 +7763,7 @@
         <v>821</v>
       </c>
     </row>
-    <row r="106" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A106" t="s">
         <v>117</v>
       </c>
@@ -7808,7 +7807,7 @@
         <v>821</v>
       </c>
     </row>
-    <row r="107" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A107" t="s">
         <v>118</v>
       </c>
@@ -7852,7 +7851,7 @@
         <v>862</v>
       </c>
     </row>
-    <row r="108" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A108" t="s">
         <v>119</v>
       </c>
@@ -7896,7 +7895,7 @@
         <v>862</v>
       </c>
     </row>
-    <row r="109" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A109" t="s">
         <v>120</v>
       </c>
@@ -7940,7 +7939,7 @@
         <v>824</v>
       </c>
     </row>
-    <row r="110" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A110" t="s">
         <v>121</v>
       </c>
@@ -7987,7 +7986,7 @@
         <v>825</v>
       </c>
     </row>
-    <row r="111" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A111" t="s">
         <v>122</v>
       </c>
@@ -8034,7 +8033,7 @@
         <v>833</v>
       </c>
     </row>
-    <row r="112" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A112" t="s">
         <v>123</v>
       </c>
@@ -8081,7 +8080,7 @@
         <v>825</v>
       </c>
     </row>
-    <row r="113" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A113" t="s">
         <v>124</v>
       </c>
@@ -8125,7 +8124,7 @@
         <v>825</v>
       </c>
     </row>
-    <row r="114" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A114" t="s">
         <v>125</v>
       </c>
@@ -8169,7 +8168,7 @@
         <v>824</v>
       </c>
     </row>
-    <row r="115" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A115" t="s">
         <v>126</v>
       </c>
@@ -8213,7 +8212,7 @@
         <v>862</v>
       </c>
     </row>
-    <row r="116" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A116" t="s">
         <v>127</v>
       </c>
@@ -8260,7 +8259,7 @@
         <v>834</v>
       </c>
     </row>
-    <row r="117" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A117" t="s">
         <v>128</v>
       </c>
@@ -8304,7 +8303,7 @@
         <v>821</v>
       </c>
     </row>
-    <row r="118" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A118" t="s">
         <v>129</v>
       </c>
@@ -8348,7 +8347,7 @@
         <v>821</v>
       </c>
     </row>
-    <row r="119" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A119" t="s">
         <v>130</v>
       </c>
@@ -8392,7 +8391,7 @@
         <v>862</v>
       </c>
     </row>
-    <row r="120" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A120" t="s">
         <v>131</v>
       </c>
@@ -8436,7 +8435,7 @@
         <v>862</v>
       </c>
     </row>
-    <row r="121" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A121" t="s">
         <v>132</v>
       </c>
@@ -8480,7 +8479,7 @@
         <v>819</v>
       </c>
     </row>
-    <row r="122" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A122" t="s">
         <v>133</v>
       </c>
@@ -8524,7 +8523,7 @@
         <v>819</v>
       </c>
     </row>
-    <row r="123" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A123" t="s">
         <v>134</v>
       </c>
@@ -8568,7 +8567,7 @@
         <v>821</v>
       </c>
     </row>
-    <row r="124" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A124" t="s">
         <v>135</v>
       </c>
@@ -8612,7 +8611,7 @@
         <v>824</v>
       </c>
     </row>
-    <row r="125" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A125" t="s">
         <v>136</v>
       </c>
@@ -8656,7 +8655,7 @@
         <v>821</v>
       </c>
     </row>
-    <row r="126" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A126" t="s">
         <v>137</v>
       </c>
@@ -8700,7 +8699,7 @@
         <v>862</v>
       </c>
     </row>
-    <row r="127" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A127" t="s">
         <v>138</v>
       </c>
@@ -8744,7 +8743,7 @@
         <v>821</v>
       </c>
     </row>
-    <row r="128" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A128" t="s">
         <v>139</v>
       </c>
@@ -8788,7 +8787,7 @@
         <v>821</v>
       </c>
     </row>
-    <row r="129" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A129" t="s">
         <v>140</v>
       </c>
@@ -8832,7 +8831,7 @@
         <v>863</v>
       </c>
     </row>
-    <row r="130" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A130" t="s">
         <v>141</v>
       </c>
@@ -8876,7 +8875,7 @@
         <v>819</v>
       </c>
     </row>
-    <row r="131" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A131" t="s">
         <v>142</v>
       </c>
@@ -8920,7 +8919,7 @@
         <v>821</v>
       </c>
     </row>
-    <row r="132" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A132" t="s">
         <v>143</v>
       </c>
@@ -8961,7 +8960,7 @@
         <v>835</v>
       </c>
     </row>
-    <row r="133" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A133" t="s">
         <v>144</v>
       </c>
@@ -9005,7 +9004,7 @@
         <v>786</v>
       </c>
     </row>
-    <row r="134" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A134" t="s">
         <v>145</v>
       </c>
@@ -9046,7 +9045,7 @@
         <v>784</v>
       </c>
     </row>
-    <row r="135" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A135" t="s">
         <v>146</v>
       </c>
@@ -9087,7 +9086,7 @@
         <v>784</v>
       </c>
     </row>
-    <row r="136" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A136" t="s">
         <v>147</v>
       </c>
@@ -9131,7 +9130,7 @@
         <v>790</v>
       </c>
     </row>
-    <row r="137" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A137" t="s">
         <v>148</v>
       </c>
@@ -9172,7 +9171,7 @@
         <v>784</v>
       </c>
     </row>
-    <row r="138" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A138" t="s">
         <v>149</v>
       </c>
@@ -9216,7 +9215,7 @@
         <v>790</v>
       </c>
     </row>
-    <row r="139" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A139" t="s">
         <v>150</v>
       </c>
@@ -9257,7 +9256,7 @@
         <v>784</v>
       </c>
     </row>
-    <row r="140" spans="1:14" s="3" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:14" s="3" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A140" s="3" t="s">
         <v>151</v>
       </c>
@@ -9301,7 +9300,7 @@
         <v>792</v>
       </c>
     </row>
-    <row r="141" spans="1:14" s="3" customFormat="1" ht="12.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:14" s="3" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A141" s="3" t="s">
         <v>152</v>
       </c>
@@ -9345,7 +9344,7 @@
         <v>794</v>
       </c>
     </row>
-    <row r="142" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A142" t="s">
         <v>153</v>
       </c>
@@ -9386,7 +9385,7 @@
         <v>784</v>
       </c>
     </row>
-    <row r="143" spans="1:14" s="3" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:14" s="3" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A143" s="3" t="s">
         <v>154</v>
       </c>
@@ -9430,7 +9429,7 @@
         <v>800</v>
       </c>
     </row>
-    <row r="144" spans="1:14" s="3" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:14" s="3" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A144" s="3" t="s">
         <v>155</v>
       </c>
@@ -9471,7 +9470,7 @@
         <v>784</v>
       </c>
     </row>
-    <row r="145" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A145" t="s">
         <v>156</v>
       </c>
@@ -9512,7 +9511,7 @@
         <v>784</v>
       </c>
     </row>
-    <row r="146" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A146" t="s">
         <v>157</v>
       </c>
@@ -9553,7 +9552,7 @@
         <v>784</v>
       </c>
     </row>
-    <row r="147" spans="1:14" s="3" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:14" s="3" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A147" s="3" t="s">
         <v>158</v>
       </c>
@@ -9597,7 +9596,7 @@
         <v>799</v>
       </c>
     </row>
-    <row r="148" spans="1:14" s="3" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:14" s="3" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A148" s="3" t="s">
         <v>159</v>
       </c>
@@ -9638,7 +9637,7 @@
         <v>784</v>
       </c>
     </row>
-    <row r="149" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A149" t="s">
         <v>160</v>
       </c>
@@ -9679,7 +9678,7 @@
         <v>784</v>
       </c>
     </row>
-    <row r="150" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A150" t="s">
         <v>161</v>
       </c>
@@ -9720,7 +9719,7 @@
         <v>784</v>
       </c>
     </row>
-    <row r="151" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A151" t="s">
         <v>162</v>
       </c>
@@ -9761,7 +9760,7 @@
         <v>784</v>
       </c>
     </row>
-    <row r="152" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A152" t="s">
         <v>163</v>
       </c>
@@ -9802,7 +9801,7 @@
         <v>784</v>
       </c>
     </row>
-    <row r="153" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A153" t="s">
         <v>164</v>
       </c>
@@ -9843,7 +9842,7 @@
         <v>784</v>
       </c>
     </row>
-    <row r="154" spans="1:14" s="3" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:14" s="3" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A154" s="3" t="s">
         <v>165</v>
       </c>
@@ -9887,7 +9886,7 @@
         <v>796</v>
       </c>
     </row>
-    <row r="155" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A155" t="s">
         <v>166</v>
       </c>
@@ -9928,7 +9927,7 @@
         <v>784</v>
       </c>
     </row>
-    <row r="156" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A156" t="s">
         <v>167</v>
       </c>
@@ -9969,7 +9968,7 @@
         <v>784</v>
       </c>
     </row>
-    <row r="157" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A157" t="s">
         <v>168</v>
       </c>
@@ -10010,7 +10009,7 @@
         <v>784</v>
       </c>
     </row>
-    <row r="158" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A158" t="s">
         <v>169</v>
       </c>
@@ -10051,7 +10050,7 @@
         <v>784</v>
       </c>
     </row>
-    <row r="159" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A159" t="s">
         <v>170</v>
       </c>
@@ -10092,7 +10091,7 @@
         <v>784</v>
       </c>
     </row>
-    <row r="160" spans="1:14" s="3" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:14" s="3" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A160" s="3" t="s">
         <v>171</v>
       </c>
@@ -10136,7 +10135,7 @@
         <v>786</v>
       </c>
     </row>
-    <row r="161" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A161" t="s">
         <v>172</v>
       </c>
@@ -10177,7 +10176,7 @@
         <v>784</v>
       </c>
     </row>
-    <row r="162" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A162" t="s">
         <v>173</v>
       </c>
@@ -10218,7 +10217,7 @@
         <v>784</v>
       </c>
     </row>
-    <row r="163" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A163" t="s">
         <v>174</v>
       </c>
@@ -10262,7 +10261,7 @@
         <v>792</v>
       </c>
     </row>
-    <row r="164" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A164" t="s">
         <v>175</v>
       </c>
@@ -10303,7 +10302,7 @@
         <v>784</v>
       </c>
     </row>
-    <row r="165" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A165" t="s">
         <v>176</v>
       </c>
@@ -10344,7 +10343,7 @@
         <v>784</v>
       </c>
     </row>
-    <row r="166" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A166" t="s">
         <v>177</v>
       </c>
@@ -10385,7 +10384,7 @@
         <v>784</v>
       </c>
     </row>
-    <row r="167" spans="1:14" s="3" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:14" s="3" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A167" s="3" t="s">
         <v>178</v>
       </c>
@@ -10429,7 +10428,7 @@
         <v>807</v>
       </c>
     </row>
-    <row r="168" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A168" t="s">
         <v>179</v>
       </c>
@@ -10470,7 +10469,7 @@
         <v>784</v>
       </c>
     </row>
-    <row r="169" spans="1:14" s="3" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:14" s="3" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A169" s="3" t="s">
         <v>180</v>
       </c>
@@ -10514,7 +10513,7 @@
         <v>808</v>
       </c>
     </row>
-    <row r="170" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A170" t="s">
         <v>181</v>
       </c>
@@ -10555,7 +10554,7 @@
         <v>784</v>
       </c>
     </row>
-    <row r="171" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A171" t="s">
         <v>182</v>
       </c>
@@ -10596,7 +10595,7 @@
         <v>784</v>
       </c>
     </row>
-    <row r="172" spans="1:14" s="3" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:14" s="3" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A172" s="3" t="s">
         <v>183</v>
       </c>
@@ -10640,7 +10639,7 @@
         <v>809</v>
       </c>
     </row>
-    <row r="173" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A173" t="s">
         <v>184</v>
       </c>
@@ -10681,7 +10680,7 @@
         <v>784</v>
       </c>
     </row>
-    <row r="174" spans="1:14" s="3" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:14" s="3" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A174" s="3" t="s">
         <v>185</v>
       </c>
@@ -10725,7 +10724,7 @@
         <v>786</v>
       </c>
     </row>
-    <row r="175" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+    <row r="175" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A175" t="s">
         <v>186</v>
       </c>
@@ -10769,7 +10768,7 @@
         <v>800</v>
       </c>
     </row>
-    <row r="176" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+    <row r="176" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A176" t="s">
         <v>187</v>
       </c>
@@ -10810,7 +10809,7 @@
         <v>784</v>
       </c>
     </row>
-    <row r="177" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+    <row r="177" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A177" t="s">
         <v>188</v>
       </c>
@@ -10851,7 +10850,7 @@
         <v>784</v>
       </c>
     </row>
-    <row r="178" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+    <row r="178" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A178" t="s">
         <v>189</v>
       </c>
@@ -10892,7 +10891,7 @@
         <v>784</v>
       </c>
     </row>
-    <row r="179" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+    <row r="179" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A179" t="s">
         <v>190</v>
       </c>
@@ -10933,7 +10932,7 @@
         <v>784</v>
       </c>
     </row>
-    <row r="180" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+    <row r="180" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A180" t="s">
         <v>191</v>
       </c>
@@ -10974,7 +10973,7 @@
         <v>784</v>
       </c>
     </row>
-    <row r="181" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+    <row r="181" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A181" t="s">
         <v>192</v>
       </c>
@@ -11015,7 +11014,7 @@
         <v>784</v>
       </c>
     </row>
-    <row r="182" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+    <row r="182" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A182" t="s">
         <v>193</v>
       </c>
@@ -11056,7 +11055,7 @@
         <v>784</v>
       </c>
     </row>
-    <row r="183" spans="1:14" s="3" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="183" spans="1:14" s="3" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A183" s="3" t="s">
         <v>194</v>
       </c>
@@ -11100,7 +11099,7 @@
         <v>792</v>
       </c>
     </row>
-    <row r="184" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+    <row r="184" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A184" t="s">
         <v>195</v>
       </c>
@@ -11141,7 +11140,7 @@
         <v>784</v>
       </c>
     </row>
-    <row r="185" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+    <row r="185" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A185" t="s">
         <v>196</v>
       </c>
@@ -11182,7 +11181,7 @@
         <v>784</v>
       </c>
     </row>
-    <row r="186" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+    <row r="186" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A186" t="s">
         <v>197</v>
       </c>
@@ -11223,7 +11222,7 @@
         <v>784</v>
       </c>
     </row>
-    <row r="187" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+    <row r="187" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A187" t="s">
         <v>198</v>
       </c>
@@ -11264,7 +11263,7 @@
         <v>784</v>
       </c>
     </row>
-    <row r="188" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+    <row r="188" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A188" t="s">
         <v>199</v>
       </c>
@@ -11305,7 +11304,7 @@
         <v>784</v>
       </c>
     </row>
-    <row r="189" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+    <row r="189" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A189" t="s">
         <v>200</v>
       </c>
@@ -11346,7 +11345,7 @@
         <v>784</v>
       </c>
     </row>
-    <row r="190" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+    <row r="190" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A190" t="s">
         <v>201</v>
       </c>
@@ -11387,7 +11386,7 @@
         <v>784</v>
       </c>
     </row>
-    <row r="191" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+    <row r="191" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A191" t="s">
         <v>202</v>
       </c>
@@ -11428,7 +11427,7 @@
         <v>784</v>
       </c>
     </row>
-    <row r="192" spans="1:14" s="3" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="192" spans="1:14" s="3" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A192" s="3" t="s">
         <v>203</v>
       </c>
@@ -11472,7 +11471,7 @@
         <v>807</v>
       </c>
     </row>
-    <row r="193" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+    <row r="193" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A193" t="s">
         <v>204</v>
       </c>
@@ -11513,7 +11512,7 @@
         <v>784</v>
       </c>
     </row>
-    <row r="194" spans="1:14" s="3" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="194" spans="1:14" s="3" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A194" s="3" t="s">
         <v>205</v>
       </c>
@@ -11557,7 +11556,7 @@
         <v>792</v>
       </c>
     </row>
-    <row r="195" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+    <row r="195" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A195" t="s">
         <v>206</v>
       </c>
@@ -11598,7 +11597,7 @@
         <v>784</v>
       </c>
     </row>
-    <row r="196" spans="1:14" s="3" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="196" spans="1:14" s="3" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A196" s="3" t="s">
         <v>207</v>
       </c>
@@ -11642,7 +11641,7 @@
         <v>818</v>
       </c>
     </row>
-    <row r="197" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+    <row r="197" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A197" t="s">
         <v>208</v>
       </c>
@@ -11683,7 +11682,7 @@
         <v>784</v>
       </c>
     </row>
-    <row r="198" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+    <row r="198" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A198" t="s">
         <v>209</v>
       </c>
@@ -11724,7 +11723,7 @@
         <v>784</v>
       </c>
     </row>
-    <row r="199" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+    <row r="199" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A199" t="s">
         <v>210</v>
       </c>
@@ -11765,7 +11764,7 @@
         <v>784</v>
       </c>
     </row>
-    <row r="200" spans="1:14" s="3" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="200" spans="1:14" s="3" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A200" s="3" t="s">
         <v>211</v>
       </c>
@@ -11809,7 +11808,7 @@
         <v>807</v>
       </c>
     </row>
-    <row r="201" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+    <row r="201" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A201" t="s">
         <v>212</v>
       </c>
@@ -11851,14 +11850,7 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="N1:N201">
-    <filterColumn colId="0">
-      <filters>
-        <filter val="？"/>
-        <filter val="P?"/>
-      </filters>
-    </filterColumn>
-  </autoFilter>
+  <autoFilter ref="N1:N201"/>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
